--- a/biology/Zoologie/Aiguillat_à_grosse_tête/Aiguillat_à_grosse_tête.xlsx
+++ b/biology/Zoologie/Aiguillat_à_grosse_tête/Aiguillat_à_grosse_tête.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aiguillat_%C3%A0_grosse_t%C3%AAte</t>
+          <t>Aiguillat_à_grosse_tête</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Squalus bucephalus
 L’Aiguillat à grosse tête (Squalus bucephalus)  est une espèce de requins de l'ordre des Squaliformes.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aiguillat_%C3%A0_grosse_t%C3%AAte</t>
+          <t>Aiguillat_à_grosse_tête</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pseudophoxinus mehmeti se rencontre dans le nord de la mer de Tasmanie et au large de la Nouvelle-Calédonie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pseudophoxinus mehmeti se rencontre dans le nord de la mer de Tasmanie et au large de la Nouvelle-Calédonie.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aiguillat_%C3%A0_grosse_t%C3%AAte</t>
+          <t>Aiguillat_à_grosse_tête</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille maximale connue pour Squalus bucephalus est de 90 cm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille maximale connue pour Squalus bucephalus est de 90 cm.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aiguillat_%C3%A0_grosse_t%C3%AAte</t>
+          <t>Aiguillat_à_grosse_tête</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, bucephalus, dérivé du grec ancien βοῦς, boûs, « bœuf » et par extension « large », et κεφαλή, kephalế , « tête », lui a été donné en référence à sa morphologie[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, bucephalus, dérivé du grec ancien βοῦς, boûs, « bœuf » et par extension « large », et κεφαλή, kephalế , « tête », lui a été donné en référence à sa morphologie.
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Aiguillat_%C3%A0_grosse_t%C3%AAte</t>
+          <t>Aiguillat_à_grosse_tête</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>(en) Last, Séret &amp; Pogonoski, 2007 : Squalus bucephalus sp. nov., a new short-snout spurdog from New Caledonia. in Descriptions of new dogfishes of the genus Squalus (Squaloidea: Squalidae). CSIRO Marine and Atmospheric Research Paper, n. 14-3, pp. 23-29[3] (introduction).</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) Last, Séret &amp; Pogonoski, 2007 : Squalus bucephalus sp. nov., a new short-snout spurdog from New Caledonia. in Descriptions of new dogfishes of the genus Squalus (Squaloidea: Squalidae). CSIRO Marine and Atmospheric Research Paper, n. 14-3, pp. 23-29 (introduction).</t>
         </is>
       </c>
     </row>
